--- a/data/pca/factorExposure/factorExposure_2017-11-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-11-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02125333586977039</v>
+        <v>0.01231458738721465</v>
       </c>
       <c r="C2">
-        <v>0.004895721387245145</v>
+        <v>0.0383123020656284</v>
       </c>
       <c r="D2">
-        <v>0.001739167653844165</v>
+        <v>0.02861147361954237</v>
       </c>
       <c r="E2">
-        <v>0.02373048313919815</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.02653975496087854</v>
+      </c>
+      <c r="F2">
+        <v>-0.03656299287243061</v>
+      </c>
+      <c r="G2">
+        <v>0.01295537862847685</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.004061398557452759</v>
+        <v>0.05768689925699559</v>
       </c>
       <c r="C3">
-        <v>0.06716828983782745</v>
+        <v>0.0794909243851606</v>
       </c>
       <c r="D3">
-        <v>0.004814090961065957</v>
+        <v>0.01444806044952359</v>
       </c>
       <c r="E3">
-        <v>-0.02991796039078398</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.08171020141914564</v>
+      </c>
+      <c r="F3">
+        <v>-0.06344493457812116</v>
+      </c>
+      <c r="G3">
+        <v>0.06822099573961712</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02359532828290703</v>
+        <v>0.05473732468358778</v>
       </c>
       <c r="C4">
-        <v>0.02646223965364208</v>
+        <v>0.06211790457344232</v>
       </c>
       <c r="D4">
-        <v>0.02801442117101988</v>
+        <v>0.02215571502248429</v>
       </c>
       <c r="E4">
-        <v>0.04139501186069628</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.001758968860123425</v>
+      </c>
+      <c r="F4">
+        <v>-0.01686144031955541</v>
+      </c>
+      <c r="G4">
+        <v>0.04103338765040833</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01790425326031882</v>
+        <v>0.03234567968464893</v>
       </c>
       <c r="C6">
-        <v>0.04265490241789582</v>
+        <v>0.05642272340140887</v>
       </c>
       <c r="D6">
-        <v>0.02390270660836596</v>
+        <v>0.01599942913924611</v>
       </c>
       <c r="E6">
-        <v>0.06631672940569036</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.004435999553796456</v>
+      </c>
+      <c r="F6">
+        <v>-0.01753577710380232</v>
+      </c>
+      <c r="G6">
+        <v>0.02258815507703538</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01302432163620614</v>
+        <v>0.01837810156708441</v>
       </c>
       <c r="C7">
-        <v>0.02403213146209023</v>
+        <v>0.0384845471881713</v>
       </c>
       <c r="D7">
-        <v>0.0712885884060009</v>
+        <v>0.01252361825254276</v>
       </c>
       <c r="E7">
-        <v>-0.006983393421868763</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.01365811755238662</v>
+      </c>
+      <c r="F7">
+        <v>-0.01011784062175549</v>
+      </c>
+      <c r="G7">
+        <v>0.07531929698625388</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.005092405722108691</v>
+        <v>-0.003200185410585845</v>
       </c>
       <c r="C8">
-        <v>-0.01899182545493672</v>
+        <v>0.0142129075708008</v>
       </c>
       <c r="D8">
-        <v>0.01535909423350117</v>
+        <v>0.003862716441445795</v>
       </c>
       <c r="E8">
-        <v>0.02191456649074698</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.01666936881927021</v>
+      </c>
+      <c r="F8">
+        <v>-0.02367668675314401</v>
+      </c>
+      <c r="G8">
+        <v>0.02531737253292255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01642473439036415</v>
+        <v>0.02691763685201238</v>
       </c>
       <c r="C9">
-        <v>0.02555444662423813</v>
+        <v>0.04249353222033519</v>
       </c>
       <c r="D9">
-        <v>0.01841041934912955</v>
+        <v>0.0154179981349026</v>
       </c>
       <c r="E9">
-        <v>0.02970505528334083</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.004077071288896628</v>
+      </c>
+      <c r="F9">
+        <v>-0.0201234632026258</v>
+      </c>
+      <c r="G9">
+        <v>0.03169446315392893</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.01333921714392513</v>
+        <v>0.08587832232983954</v>
       </c>
       <c r="C10">
-        <v>0.1032995250420105</v>
+        <v>-0.1855530305164663</v>
       </c>
       <c r="D10">
-        <v>-0.0410971922485387</v>
+        <v>-0.01875394016484017</v>
       </c>
       <c r="E10">
-        <v>-0.1421087390334634</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.02075125548844194</v>
+      </c>
+      <c r="F10">
+        <v>0.0128424233273413</v>
+      </c>
+      <c r="G10">
+        <v>0.03688089752462038</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.001066845426376418</v>
+        <v>0.03568622248120067</v>
       </c>
       <c r="C11">
-        <v>0.02365660820741922</v>
+        <v>0.05358880649128576</v>
       </c>
       <c r="D11">
-        <v>0.007454692509147277</v>
+        <v>0.001136469874607607</v>
       </c>
       <c r="E11">
-        <v>0.05055096576292704</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.002852042990333702</v>
+      </c>
+      <c r="F11">
+        <v>-0.02363520573511296</v>
+      </c>
+      <c r="G11">
+        <v>0.0120175745717624</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.01029349292635751</v>
+        <v>0.0326722469824356</v>
       </c>
       <c r="C12">
-        <v>0.02552927786699187</v>
+        <v>0.04443973789391001</v>
       </c>
       <c r="D12">
-        <v>0.01179566093081869</v>
+        <v>0.005431850116943184</v>
       </c>
       <c r="E12">
-        <v>0.04226835795562437</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.008698481315658153</v>
+      </c>
+      <c r="F12">
+        <v>-0.007607462667066071</v>
+      </c>
+      <c r="G12">
+        <v>0.01712583109991278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01990051911290161</v>
+        <v>0.01063136356162901</v>
       </c>
       <c r="C13">
-        <v>0.01710491030004377</v>
+        <v>0.03477248443480296</v>
       </c>
       <c r="D13">
-        <v>0.002817810841475773</v>
+        <v>0.02464842329163219</v>
       </c>
       <c r="E13">
-        <v>0.02294131326924014</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.02002934055769857</v>
+      </c>
+      <c r="F13">
+        <v>-0.02534872401799657</v>
+      </c>
+      <c r="G13">
+        <v>0.02540292502203022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.006978628962074711</v>
+        <v>0.00814400561736563</v>
       </c>
       <c r="C14">
-        <v>0.01254945418882696</v>
+        <v>0.02518114567702045</v>
       </c>
       <c r="D14">
-        <v>0.01787421638260827</v>
+        <v>0.008371008708529368</v>
       </c>
       <c r="E14">
-        <v>0.009817297461214822</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.00467294599802733</v>
+      </c>
+      <c r="F14">
+        <v>-0.003336172594652353</v>
+      </c>
+      <c r="G14">
+        <v>0.03567525817117802</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.002335072812559792</v>
+        <v>0.03175634930604258</v>
       </c>
       <c r="C16">
-        <v>0.02265501232235634</v>
+        <v>0.04372222827438121</v>
       </c>
       <c r="D16">
-        <v>0.01396301567007123</v>
+        <v>0.0007803685759758431</v>
       </c>
       <c r="E16">
-        <v>0.04766510223759676</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.001165820327448019</v>
+      </c>
+      <c r="F16">
+        <v>-0.01002780992400799</v>
+      </c>
+      <c r="G16">
+        <v>0.01610924340375907</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01215438718127508</v>
+        <v>0.03039706929263247</v>
       </c>
       <c r="C19">
-        <v>0.02002563606776107</v>
+        <v>0.05534730129993506</v>
       </c>
       <c r="D19">
-        <v>0.01437321401308193</v>
+        <v>0.01516689190038257</v>
       </c>
       <c r="E19">
-        <v>0.04655311694257271</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.03815462764935409</v>
+      </c>
+      <c r="F19">
+        <v>-0.03913100901336092</v>
+      </c>
+      <c r="G19">
+        <v>0.03439233684564021</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.008151980923220618</v>
+        <v>0.01010811184179428</v>
       </c>
       <c r="C20">
-        <v>0.003684450543593716</v>
+        <v>0.03528425147800809</v>
       </c>
       <c r="D20">
-        <v>0.005808883032405705</v>
+        <v>0.01310392700467009</v>
       </c>
       <c r="E20">
-        <v>0.003398719457670141</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.0197726478578608</v>
+      </c>
+      <c r="F20">
+        <v>-0.00769992160070859</v>
+      </c>
+      <c r="G20">
+        <v>0.02736305839226066</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01334626936666161</v>
+        <v>0.01203872161698618</v>
       </c>
       <c r="C21">
-        <v>0.03541029144927461</v>
+        <v>0.03426690564961167</v>
       </c>
       <c r="D21">
-        <v>0.02896365423153648</v>
+        <v>0.01589015923381094</v>
       </c>
       <c r="E21">
-        <v>0.02348026582508669</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.02668718964184787</v>
+      </c>
+      <c r="F21">
+        <v>-0.02003835746651844</v>
+      </c>
+      <c r="G21">
+        <v>0.04905223096950879</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.004111247343142936</v>
+        <v>0.02599236394035999</v>
       </c>
       <c r="C24">
-        <v>0.020538233268589</v>
+        <v>0.04685833947578471</v>
       </c>
       <c r="D24">
-        <v>0.0115124126857482</v>
+        <v>0.006198486575448611</v>
       </c>
       <c r="E24">
-        <v>0.04292461147448656</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.006778513140040329</v>
+      </c>
+      <c r="F24">
+        <v>-0.01923617791178129</v>
+      </c>
+      <c r="G24">
+        <v>0.01574266116287685</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01211141288511362</v>
+        <v>0.04330725849139571</v>
       </c>
       <c r="C25">
-        <v>0.03289978291071562</v>
+        <v>0.05299524726115737</v>
       </c>
       <c r="D25">
-        <v>0.009109181546991005</v>
+        <v>0.009998341532677327</v>
       </c>
       <c r="E25">
-        <v>0.04482042603307021</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.01328885513013501</v>
+      </c>
+      <c r="F25">
+        <v>-0.01436343516680388</v>
+      </c>
+      <c r="G25">
+        <v>0.02134256790967004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02220388872498003</v>
+        <v>0.006951611568899382</v>
       </c>
       <c r="C26">
-        <v>0.001178728841495704</v>
+        <v>0.008455063267146892</v>
       </c>
       <c r="D26">
-        <v>0.009953001330528895</v>
+        <v>0.02392675830093832</v>
       </c>
       <c r="E26">
-        <v>0.0007743242683556422</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.009152415118285823</v>
+      </c>
+      <c r="F26">
+        <v>-0.007715816559053013</v>
+      </c>
+      <c r="G26">
+        <v>0.02563662958630604</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.03022072519277637</v>
+        <v>0.1100808817092142</v>
       </c>
       <c r="C28">
-        <v>0.1503042455242693</v>
+        <v>-0.2267946697477622</v>
       </c>
       <c r="D28">
-        <v>-0.06236436255853606</v>
+        <v>-0.01022042452915313</v>
       </c>
       <c r="E28">
-        <v>-0.2185023811560483</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.008795381043042385</v>
+      </c>
+      <c r="F28">
+        <v>0.006013504742511212</v>
+      </c>
+      <c r="G28">
+        <v>0.05215900573495037</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.007381326978516137</v>
+        <v>0.01234411930658535</v>
       </c>
       <c r="C29">
-        <v>0.01510484997707618</v>
+        <v>0.01945310397009017</v>
       </c>
       <c r="D29">
-        <v>0.01323633835969074</v>
+        <v>0.007126743782649457</v>
       </c>
       <c r="E29">
-        <v>0.008643190695786476</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.002971559104124132</v>
+      </c>
+      <c r="F29">
+        <v>0.006158586664775093</v>
+      </c>
+      <c r="G29">
+        <v>0.02932458592692393</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.0351889648058967</v>
+        <v>0.03897825710335356</v>
       </c>
       <c r="C30">
-        <v>0.0272176956022539</v>
+        <v>0.07148758988618599</v>
       </c>
       <c r="D30">
-        <v>-0.03093960495320051</v>
+        <v>0.02680682824307237</v>
       </c>
       <c r="E30">
-        <v>0.08873450962637638</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.01879528962670769</v>
+      </c>
+      <c r="F30">
+        <v>-0.04603306542094562</v>
+      </c>
+      <c r="G30">
+        <v>-0.007528319749795202</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.003500584220730641</v>
+        <v>0.04190074369241609</v>
       </c>
       <c r="C31">
-        <v>0.04745192302807743</v>
+        <v>0.03066109136389825</v>
       </c>
       <c r="D31">
-        <v>0.01904823660584893</v>
+        <v>0.003100945474807579</v>
       </c>
       <c r="E31">
-        <v>0.0240045917287261</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.01173724186878575</v>
+      </c>
+      <c r="F31">
+        <v>0.03538057301570351</v>
+      </c>
+      <c r="G31">
+        <v>0.02925964480158607</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.01127262031463092</v>
+        <v>0.003254946763573518</v>
       </c>
       <c r="C32">
-        <v>0.001995925722755522</v>
+        <v>0.03499793586116343</v>
       </c>
       <c r="D32">
-        <v>0.0314527692223049</v>
+        <v>-0.00468125539816408</v>
       </c>
       <c r="E32">
-        <v>0.02122066639795678</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01169909847818091</v>
+      </c>
+      <c r="F32">
+        <v>-0.07818292118883934</v>
+      </c>
+      <c r="G32">
+        <v>0.05185197860307007</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.008323265435677123</v>
+        <v>0.02898057071249532</v>
       </c>
       <c r="C33">
-        <v>0.02964590501663295</v>
+        <v>0.05123175552681718</v>
       </c>
       <c r="D33">
-        <v>-0.0105798232388437</v>
+        <v>0.01388474401465447</v>
       </c>
       <c r="E33">
-        <v>0.04181248096448544</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.0178117892826272</v>
+      </c>
+      <c r="F33">
+        <v>-0.02618004570899463</v>
+      </c>
+      <c r="G33">
+        <v>0.02038545851602248</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.002834645757516679</v>
+        <v>0.04673082181100673</v>
       </c>
       <c r="C34">
-        <v>0.02512938342211959</v>
+        <v>0.0542365687949281</v>
       </c>
       <c r="D34">
-        <v>0.021413269644143</v>
+        <v>-0.00619100752566142</v>
       </c>
       <c r="E34">
-        <v>0.04457878791735684</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.01249303626892834</v>
+      </c>
+      <c r="F34">
+        <v>-0.02125977880466697</v>
+      </c>
+      <c r="G34">
+        <v>0.02544825318730962</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.0116542075545523</v>
+        <v>0.01080552267003527</v>
       </c>
       <c r="C36">
-        <v>0.01562899712893742</v>
+        <v>0.006018560533789702</v>
       </c>
       <c r="D36">
-        <v>0.005409670023061335</v>
+        <v>0.01113556517620796</v>
       </c>
       <c r="E36">
-        <v>0.003639262834585579</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.0007989906512621982</v>
+      </c>
+      <c r="F36">
+        <v>-0.0001638198815157242</v>
+      </c>
+      <c r="G36">
+        <v>0.01774430480564122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.005508162292597582</v>
+        <v>0.03360775668518711</v>
       </c>
       <c r="C38">
-        <v>0.02450675188003447</v>
+        <v>0.02222358839396172</v>
       </c>
       <c r="D38">
-        <v>0.005611938912587114</v>
+        <v>-0.008190181466785799</v>
       </c>
       <c r="E38">
-        <v>0.02283188949003698</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.003194470086284186</v>
+      </c>
+      <c r="F38">
+        <v>-0.004172381216731676</v>
+      </c>
+      <c r="G38">
+        <v>0.0276971728721928</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.006294408557511739</v>
+        <v>0.03121458415658354</v>
       </c>
       <c r="C39">
-        <v>0.01074595285550576</v>
+        <v>0.08354906078085303</v>
       </c>
       <c r="D39">
-        <v>0.0222991370797571</v>
+        <v>0.01146306789404786</v>
       </c>
       <c r="E39">
-        <v>0.0693732800332291</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.008276272130781035</v>
+      </c>
+      <c r="F39">
+        <v>-0.03956702173394926</v>
+      </c>
+      <c r="G39">
+        <v>0.01678787214751831</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.007390991537293716</v>
+        <v>0.01947087363524486</v>
       </c>
       <c r="C40">
-        <v>0.02271092474480181</v>
+        <v>0.031663224871348</v>
       </c>
       <c r="D40">
-        <v>0.006941796293121635</v>
+        <v>0.01286042083267537</v>
       </c>
       <c r="E40">
-        <v>0.04604530877762743</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.01443377640282312</v>
+      </c>
+      <c r="F40">
+        <v>-0.02359361254711547</v>
+      </c>
+      <c r="G40">
+        <v>0.01790581100307312</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.003399864956881712</v>
+        <v>0.01237261657246623</v>
       </c>
       <c r="C41">
-        <v>0.01727189105578173</v>
+        <v>-0.002233044498214823</v>
       </c>
       <c r="D41">
-        <v>-0.001934665826168612</v>
+        <v>0.003375391401874365</v>
       </c>
       <c r="E41">
-        <v>-0.007342750690068573</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.002911581429190136</v>
+      </c>
+      <c r="F41">
+        <v>-0.0008179660609144638</v>
+      </c>
+      <c r="G41">
+        <v>0.01215688114637462</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.08526423954213713</v>
+        <v>0.03675624984079159</v>
       </c>
       <c r="C42">
-        <v>0.1122606138400345</v>
+        <v>0.05343387741503756</v>
       </c>
       <c r="D42">
-        <v>-0.0803665605898005</v>
+        <v>0.102511393841739</v>
       </c>
       <c r="E42">
-        <v>0.1634928535931316</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.06478514395096001</v>
+      </c>
+      <c r="F42">
+        <v>0.1052522365250106</v>
+      </c>
+      <c r="G42">
+        <v>-0.2140961034164435</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.009724235209485522</v>
+        <v>0.02728997674009862</v>
       </c>
       <c r="C43">
-        <v>0.01763160902637525</v>
+        <v>0.006908625257869611</v>
       </c>
       <c r="D43">
-        <v>-0.00167758925563419</v>
+        <v>0.003548955890301794</v>
       </c>
       <c r="E43">
-        <v>-0.002101863471101002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.0007148321338179951</v>
+      </c>
+      <c r="F43">
+        <v>-0.001257704380060848</v>
+      </c>
+      <c r="G43">
+        <v>0.01635789540875481</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.001257512716632735</v>
+        <v>0.01674675998041023</v>
       </c>
       <c r="C44">
-        <v>0.003866479183012811</v>
+        <v>0.04855040697416495</v>
       </c>
       <c r="D44">
-        <v>0.01747158707399549</v>
+        <v>0.006468718444004816</v>
       </c>
       <c r="E44">
-        <v>0.01918454657464522</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01778241729650179</v>
+      </c>
+      <c r="F44">
+        <v>-0.02645615240993897</v>
+      </c>
+      <c r="G44">
+        <v>0.03151603096478218</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.008896270809317377</v>
+        <v>0.002067799989505296</v>
       </c>
       <c r="C46">
-        <v>0.005501338868062872</v>
+        <v>0.0171485455884869</v>
       </c>
       <c r="D46">
-        <v>0.01010775637311888</v>
+        <v>0.01153180432822386</v>
       </c>
       <c r="E46">
-        <v>0.02589485391100482</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.003728093656135098</v>
+      </c>
+      <c r="F46">
+        <v>0.008401609122907794</v>
+      </c>
+      <c r="G46">
+        <v>0.02185749392582605</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.002768339737632664</v>
+        <v>0.07237138258369467</v>
       </c>
       <c r="C47">
-        <v>0.06855955192166505</v>
+        <v>0.06213294920328032</v>
       </c>
       <c r="D47">
-        <v>0.007090108244679458</v>
+        <v>-0.005161160419046476</v>
       </c>
       <c r="E47">
-        <v>0.04069204988912373</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.01467451433221267</v>
+      </c>
+      <c r="F47">
+        <v>0.05910631567075764</v>
+      </c>
+      <c r="G47">
+        <v>0.02125638939446416</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.003021113365133174</v>
+        <v>0.0187432679769629</v>
       </c>
       <c r="C48">
-        <v>0.02879637395441116</v>
+        <v>0.01014377242222353</v>
       </c>
       <c r="D48">
-        <v>0.006661708676836194</v>
+        <v>0.0009117005770081532</v>
       </c>
       <c r="E48">
-        <v>0.01069514829158665</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.002980800150811048</v>
+      </c>
+      <c r="F48">
+        <v>0.01312543563570664</v>
+      </c>
+      <c r="G48">
+        <v>0.0226387115826684</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.002817807866061866</v>
+        <v>0.07671857289526135</v>
       </c>
       <c r="C50">
-        <v>0.06677806559456349</v>
+        <v>0.06332013496416115</v>
       </c>
       <c r="D50">
-        <v>0.03763582658917029</v>
+        <v>-0.004028652329923253</v>
       </c>
       <c r="E50">
-        <v>0.04734955502575791</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01333025718336552</v>
+      </c>
+      <c r="F50">
+        <v>0.05397524936642888</v>
+      </c>
+      <c r="G50">
+        <v>0.04457733364657451</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01127454700448943</v>
+        <v>0.01540543298409931</v>
       </c>
       <c r="C51">
-        <v>0.009850397354456742</v>
+        <v>0.02797593023419509</v>
       </c>
       <c r="D51">
-        <v>0.0112572165319898</v>
+        <v>0.008903677988541281</v>
       </c>
       <c r="E51">
-        <v>-0.01438115103580564</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.006768789069674203</v>
+      </c>
+      <c r="F51">
+        <v>-0.03402826860470051</v>
+      </c>
+      <c r="G51">
+        <v>0.03986727931982049</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.007436764202167064</v>
+        <v>0.09655369418339951</v>
       </c>
       <c r="C53">
-        <v>0.08538522249287996</v>
+        <v>0.07452385382371689</v>
       </c>
       <c r="D53">
-        <v>0.02858266401516521</v>
+        <v>-0.00637070506800444</v>
       </c>
       <c r="E53">
-        <v>0.07098140630078294</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.04057917007513699</v>
+      </c>
+      <c r="F53">
+        <v>0.06589341793059546</v>
+      </c>
+      <c r="G53">
+        <v>0.02267190667944558</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.0007181520965645678</v>
+        <v>0.02849744160326041</v>
       </c>
       <c r="C54">
-        <v>0.0293972936319216</v>
+        <v>0.0044718128271785</v>
       </c>
       <c r="D54">
-        <v>0.009855308115840221</v>
+        <v>-0.004287390079898716</v>
       </c>
       <c r="E54">
-        <v>0.006304785182850639</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.00250793252104335</v>
+      </c>
+      <c r="F54">
+        <v>0.002296751609239246</v>
+      </c>
+      <c r="G54">
+        <v>0.02861064517490932</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.001833753402772426</v>
+        <v>0.07261518649264989</v>
       </c>
       <c r="C55">
-        <v>0.06764531610980014</v>
+        <v>0.06995500877974863</v>
       </c>
       <c r="D55">
-        <v>0.01884323028370298</v>
+        <v>-0.00499058120582858</v>
       </c>
       <c r="E55">
-        <v>0.07679859496844829</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.02700919718500058</v>
+      </c>
+      <c r="F55">
+        <v>0.06183536187908622</v>
+      </c>
+      <c r="G55">
+        <v>0.01085253351281222</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.00446461402160376</v>
+        <v>0.147663979815145</v>
       </c>
       <c r="C56">
-        <v>0.1287079849451274</v>
+        <v>0.09761188615624375</v>
       </c>
       <c r="D56">
-        <v>0.02063190660404175</v>
+        <v>-0.01541209232935605</v>
       </c>
       <c r="E56">
-        <v>0.09495526262220758</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.04551500649923131</v>
+      </c>
+      <c r="F56">
+        <v>0.105577543419363</v>
+      </c>
+      <c r="G56">
+        <v>-0.0003078688133754642</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02503527381778909</v>
+        <v>0.0131652340165435</v>
       </c>
       <c r="C57">
-        <v>0.03216802973493656</v>
+        <v>0.01176941711879811</v>
       </c>
       <c r="D57">
-        <v>0.001867426671949352</v>
+        <v>0.02365436546705745</v>
       </c>
       <c r="E57">
-        <v>0.03125864154000679</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.02835362574782025</v>
+      </c>
+      <c r="F57">
+        <v>-0.01584736604216519</v>
+      </c>
+      <c r="G57">
+        <v>0.02164054107270488</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.005502424759887961</v>
+        <v>0.07018354954082319</v>
       </c>
       <c r="C58">
-        <v>0.1304827736158142</v>
+        <v>0.07584096435488068</v>
       </c>
       <c r="D58">
-        <v>-0.09895663166118018</v>
+        <v>0.02079804288517528</v>
       </c>
       <c r="E58">
-        <v>0.1508729233302827</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.9443279365457814</v>
+      </c>
+      <c r="F58">
+        <v>0.2283690566447892</v>
+      </c>
+      <c r="G58">
+        <v>0.06613365698341322</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.03780037047254085</v>
+        <v>0.1487622391980552</v>
       </c>
       <c r="C59">
-        <v>0.1509180828153434</v>
+        <v>-0.216654495660479</v>
       </c>
       <c r="D59">
-        <v>-0.08146639365193638</v>
+        <v>-0.01752273596915344</v>
       </c>
       <c r="E59">
-        <v>-0.1816775596547247</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.01674827416579146</v>
+      </c>
+      <c r="F59">
+        <v>-0.01014958905589085</v>
+      </c>
+      <c r="G59">
+        <v>0.01643801945917096</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.04108804873078567</v>
+        <v>0.2956973134969875</v>
       </c>
       <c r="C60">
-        <v>0.1978348446911242</v>
+        <v>0.08092707528690204</v>
       </c>
       <c r="D60">
-        <v>-0.0378484006122142</v>
+        <v>0.006383023646762356</v>
       </c>
       <c r="E60">
-        <v>0.06620623024376607</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.02331727789980392</v>
+      </c>
+      <c r="F60">
+        <v>-0.378296391033349</v>
+      </c>
+      <c r="G60">
+        <v>-0.0665581134765625</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.0007976088818789739</v>
+        <v>0.03242285882982981</v>
       </c>
       <c r="C61">
-        <v>0.0279272243461213</v>
+        <v>0.06382804463772608</v>
       </c>
       <c r="D61">
-        <v>0.0140564352041951</v>
+        <v>0.004838928629979476</v>
       </c>
       <c r="E61">
-        <v>0.06226745841195031</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.005443591113091535</v>
+      </c>
+      <c r="F61">
+        <v>-0.02437514059136225</v>
+      </c>
+      <c r="G61">
+        <v>0.01828563218127224</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.006667659232885714</v>
+        <v>0.01436266266825127</v>
       </c>
       <c r="C63">
-        <v>0.01454221772918599</v>
+        <v>0.02648110920861585</v>
       </c>
       <c r="D63">
-        <v>0.01124833983404933</v>
+        <v>0.007577164401689633</v>
       </c>
       <c r="E63">
-        <v>0.02213387393144296</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.01299104316751679</v>
+      </c>
+      <c r="F63">
+        <v>0.01215885613668789</v>
+      </c>
+      <c r="G63">
+        <v>0.02714569361080716</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.007765749272366076</v>
+        <v>0.04619147905866237</v>
       </c>
       <c r="C64">
-        <v>0.04167101975936759</v>
+        <v>0.03486426582266012</v>
       </c>
       <c r="D64">
-        <v>0.009883527413213964</v>
+        <v>0.004462511261855449</v>
       </c>
       <c r="E64">
-        <v>0.04744436633025749</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.01019987169210188</v>
+      </c>
+      <c r="F64">
+        <v>-0.01485405579804018</v>
+      </c>
+      <c r="G64">
+        <v>0.01634173254020771</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.02076786306242336</v>
+        <v>0.08083230828299627</v>
       </c>
       <c r="C65">
-        <v>0.05010982959942463</v>
+        <v>0.06694601554177655</v>
       </c>
       <c r="D65">
-        <v>0.02444065365691187</v>
+        <v>0.01482941568693884</v>
       </c>
       <c r="E65">
-        <v>0.07146414957906366</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.004101776606417409</v>
+      </c>
+      <c r="F65">
+        <v>-0.03893765168026182</v>
+      </c>
+      <c r="G65">
+        <v>0.01037989715263772</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.005571354753032177</v>
+        <v>0.05387078722627774</v>
       </c>
       <c r="C66">
-        <v>0.02998237201936641</v>
+        <v>0.1165808624543612</v>
       </c>
       <c r="D66">
-        <v>0.009970518812759264</v>
+        <v>0.01056602904025911</v>
       </c>
       <c r="E66">
-        <v>0.0977189261860784</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.01124413433958917</v>
+      </c>
+      <c r="F66">
+        <v>-0.04596834806953913</v>
+      </c>
+      <c r="G66">
+        <v>0.006598889382018482</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.003438098384509994</v>
+        <v>0.05855170583059353</v>
       </c>
       <c r="C67">
-        <v>0.04194362824895517</v>
+        <v>0.02510199006324486</v>
       </c>
       <c r="D67">
-        <v>0.003025781810667042</v>
+        <v>-0.00694190371512525</v>
       </c>
       <c r="E67">
-        <v>0.02524252868260587</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.003425717904896912</v>
+      </c>
+      <c r="F67">
+        <v>-0.002085014056823765</v>
+      </c>
+      <c r="G67">
+        <v>0.02734292949793412</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.05519174693984384</v>
+        <v>0.1262243199420322</v>
       </c>
       <c r="C68">
-        <v>0.1334168978507198</v>
+        <v>-0.2710834953495083</v>
       </c>
       <c r="D68">
-        <v>-0.07524597347587464</v>
+        <v>0.001108002488365541</v>
       </c>
       <c r="E68">
-        <v>-0.196093799411128</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.02033205256095364</v>
+      </c>
+      <c r="F68">
+        <v>0.01398845261621771</v>
+      </c>
+      <c r="G68">
+        <v>0.02139768247885015</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.0001036519496741943</v>
+        <v>0.0757829364354027</v>
       </c>
       <c r="C69">
-        <v>0.05601028266769723</v>
+        <v>0.0598192137009427</v>
       </c>
       <c r="D69">
-        <v>0.01075113710950846</v>
+        <v>-0.009508201513907261</v>
       </c>
       <c r="E69">
-        <v>0.04555357204006224</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.03020871980793611</v>
+      </c>
+      <c r="F69">
+        <v>0.03930371298362195</v>
+      </c>
+      <c r="G69">
+        <v>0.01820773005478887</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.0381728577835598</v>
+        <v>0.1257650086176255</v>
       </c>
       <c r="C71">
-        <v>0.1250306867851597</v>
+        <v>-0.2289221999525766</v>
       </c>
       <c r="D71">
-        <v>-0.05816348983577261</v>
+        <v>-0.007800407353805151</v>
       </c>
       <c r="E71">
-        <v>-0.1890542981989487</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.02706654812737948</v>
+      </c>
+      <c r="F71">
+        <v>0.01796003740114063</v>
+      </c>
+      <c r="G71">
+        <v>0.03584198537917729</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.005533743165244817</v>
+        <v>0.08688563312078812</v>
       </c>
       <c r="C72">
-        <v>0.1183115147679479</v>
+        <v>0.08053280327300553</v>
       </c>
       <c r="D72">
-        <v>0.01993133721577267</v>
+        <v>-0.009801322567617531</v>
       </c>
       <c r="E72">
-        <v>0.1581421450245515</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.01548677932156162</v>
+      </c>
+      <c r="F72">
+        <v>-0.03414025534909681</v>
+      </c>
+      <c r="G72">
+        <v>-0.005696673609239503</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.05310373652379317</v>
+        <v>0.4098264062596912</v>
       </c>
       <c r="C73">
-        <v>0.2329601555795708</v>
+        <v>0.09755488202393582</v>
       </c>
       <c r="D73">
-        <v>-0.07829830407412838</v>
+        <v>0.009862347507754013</v>
       </c>
       <c r="E73">
-        <v>0.1313860915301791</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.06587142128677405</v>
+      </c>
+      <c r="F73">
+        <v>-0.532704926952203</v>
+      </c>
+      <c r="G73">
+        <v>-0.1285223683336576</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.005948021984389636</v>
+        <v>0.1186932738442852</v>
       </c>
       <c r="C74">
-        <v>0.1172760417759116</v>
+        <v>0.1134231142899197</v>
       </c>
       <c r="D74">
-        <v>0.01413740509275553</v>
+        <v>-0.01140218023987937</v>
       </c>
       <c r="E74">
-        <v>0.1030823151290255</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.03729592505722797</v>
+      </c>
+      <c r="F74">
+        <v>0.07207253245873675</v>
+      </c>
+      <c r="G74">
+        <v>0.01599934015319479</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.01324851496144499</v>
+        <v>0.2643477525359275</v>
       </c>
       <c r="C75">
-        <v>0.2342529291201488</v>
+        <v>0.139614579854987</v>
       </c>
       <c r="D75">
-        <v>0.01490138731404088</v>
+        <v>-0.03317776871619763</v>
       </c>
       <c r="E75">
-        <v>0.1623418702599382</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.07506874510284965</v>
+      </c>
+      <c r="F75">
+        <v>0.2190519379447573</v>
+      </c>
+      <c r="G75">
+        <v>-0.03057321486277458</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.0002818373228059847</v>
+        <v>0.1423233480882575</v>
       </c>
       <c r="C76">
-        <v>0.2159195760435146</v>
+        <v>0.1189330679809354</v>
       </c>
       <c r="D76">
-        <v>0.03860544873456634</v>
+        <v>-0.02325088669626675</v>
       </c>
       <c r="E76">
-        <v>0.1647860675791707</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.07038213541724132</v>
+      </c>
+      <c r="F76">
+        <v>0.1393034089536546</v>
+      </c>
+      <c r="G76">
+        <v>0.005903286887311686</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01016026015819825</v>
+        <v>0.06203337796927669</v>
       </c>
       <c r="C77">
-        <v>0.02867285593156932</v>
+        <v>0.06014208437407902</v>
       </c>
       <c r="D77">
-        <v>0.01471125631275063</v>
+        <v>0.01187041874868981</v>
       </c>
       <c r="E77">
-        <v>0.05742755318907048</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.03828431610893407</v>
+      </c>
+      <c r="F77">
+        <v>-0.02213471641092993</v>
+      </c>
+      <c r="G77">
+        <v>0.04005927916064945</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.005910911450337791</v>
+        <v>0.04106041274500377</v>
       </c>
       <c r="C78">
-        <v>0.0229957556075632</v>
+        <v>0.05171900597174014</v>
       </c>
       <c r="D78">
-        <v>0.01783298554751476</v>
+        <v>0.005113477539314114</v>
       </c>
       <c r="E78">
-        <v>0.04967485287710802</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.01680335518614031</v>
+      </c>
+      <c r="F78">
+        <v>-0.0416231866308777</v>
+      </c>
+      <c r="G78">
+        <v>0.02941974292030397</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.01848864543537587</v>
+        <v>0.06498994689326147</v>
       </c>
       <c r="C80">
-        <v>0.2117319599010493</v>
+        <v>0.07243251132907061</v>
       </c>
       <c r="D80">
-        <v>0.9200553653892677</v>
+        <v>0.01269157444710364</v>
       </c>
       <c r="E80">
-        <v>-0.2397768200922591</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.07500881938254528</v>
+      </c>
+      <c r="F80">
+        <v>-0.03919125694474848</v>
+      </c>
+      <c r="G80">
+        <v>0.918738721364008</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.009626319850079848</v>
+        <v>0.1467179139437434</v>
       </c>
       <c r="C81">
-        <v>0.1738647687108595</v>
+        <v>0.0912389762717087</v>
       </c>
       <c r="D81">
-        <v>0.02574507046284834</v>
+        <v>-0.01731268899557055</v>
       </c>
       <c r="E81">
-        <v>0.1234988093775498</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.04837495594229318</v>
+      </c>
+      <c r="F81">
+        <v>0.1397131461796831</v>
+      </c>
+      <c r="G81">
+        <v>0.01021409831256327</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.04355545475073884</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.03380911422499651</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.002340829149988481</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.01882210053205828</v>
+      </c>
+      <c r="F82">
+        <v>0.0002595803965951375</v>
+      </c>
+      <c r="G82">
+        <v>-0.005288500057380708</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.005225896472428293</v>
+        <v>0.03048792738382788</v>
       </c>
       <c r="C83">
-        <v>0.03450549480876553</v>
+        <v>0.01933021668278286</v>
       </c>
       <c r="D83">
-        <v>-0.0002775173587568774</v>
+        <v>0.004922374740249637</v>
       </c>
       <c r="E83">
-        <v>0.01794158519262249</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.02631464557557842</v>
+      </c>
+      <c r="F83">
+        <v>-0.02378158893502475</v>
+      </c>
+      <c r="G83">
+        <v>0.026499316158291</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.01692758760865504</v>
+        <v>0.2436514278975535</v>
       </c>
       <c r="C85">
-        <v>0.2135146192327481</v>
+        <v>0.1448834896380699</v>
       </c>
       <c r="D85">
-        <v>0.01530274144159374</v>
+        <v>-0.02206835372974223</v>
       </c>
       <c r="E85">
-        <v>0.1978678884122256</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.1183786999792438</v>
+      </c>
+      <c r="F85">
+        <v>0.2075926025262184</v>
+      </c>
+      <c r="G85">
+        <v>-0.05433218886827944</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.003199235486680602</v>
+        <v>0.01053070989167838</v>
       </c>
       <c r="C86">
-        <v>0.008531583363760942</v>
+        <v>0.02322637351390771</v>
       </c>
       <c r="D86">
-        <v>0.01324399639909377</v>
+        <v>0.009778351530502129</v>
       </c>
       <c r="E86">
-        <v>0.02664257653872101</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.02269027445554191</v>
+      </c>
+      <c r="F86">
+        <v>-0.02543125123034664</v>
+      </c>
+      <c r="G86">
+        <v>0.05253856125893198</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.004721063867390335</v>
+        <v>0.01641484758501954</v>
       </c>
       <c r="C87">
-        <v>0.01973471640876306</v>
+        <v>0.02732997985000005</v>
       </c>
       <c r="D87">
-        <v>0.01382357376668</v>
+        <v>0.01126156322426444</v>
       </c>
       <c r="E87">
-        <v>0.0370628269068775</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.0774701888406877</v>
+      </c>
+      <c r="F87">
+        <v>-0.06098141163780375</v>
+      </c>
+      <c r="G87">
+        <v>0.03790738067935891</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.006410061147988137</v>
+        <v>0.08909771326591495</v>
       </c>
       <c r="C88">
-        <v>0.05463193392955349</v>
+        <v>0.05219558303969771</v>
       </c>
       <c r="D88">
-        <v>-0.004877718561440026</v>
+        <v>0.02090353889750112</v>
       </c>
       <c r="E88">
-        <v>0.01908277133737911</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.003025336703829486</v>
+      </c>
+      <c r="F88">
+        <v>0.002810640628633861</v>
+      </c>
+      <c r="G88">
+        <v>0.02351250797556758</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.08057745069383651</v>
+        <v>0.2135328765662295</v>
       </c>
       <c r="C89">
-        <v>0.2467884955486085</v>
+        <v>-0.3744866764215536</v>
       </c>
       <c r="D89">
-        <v>-0.1492876476800157</v>
+        <v>-0.00981434343259493</v>
       </c>
       <c r="E89">
-        <v>-0.338433453777117</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.01050455703663221</v>
+      </c>
+      <c r="F89">
+        <v>0.03209902428577335</v>
+      </c>
+      <c r="G89">
+        <v>0.02672938886492212</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.05483228739169257</v>
+        <v>0.1772398041452382</v>
       </c>
       <c r="C90">
-        <v>0.153941728987839</v>
+        <v>-0.3394252370943165</v>
       </c>
       <c r="D90">
-        <v>-0.1245142587845821</v>
+        <v>-0.01220517421759291</v>
       </c>
       <c r="E90">
-        <v>-0.2777903848590395</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.00664199282786888</v>
+      </c>
+      <c r="F90">
+        <v>0.0450651391155126</v>
+      </c>
+      <c r="G90">
+        <v>0.003732784253459928</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.01225744062966957</v>
+        <v>0.2146917700397381</v>
       </c>
       <c r="C91">
-        <v>0.2355724449433854</v>
+        <v>0.1321258190420651</v>
       </c>
       <c r="D91">
-        <v>0.01803875467358243</v>
+        <v>-0.02652534261049667</v>
       </c>
       <c r="E91">
-        <v>0.1999846422928021</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.08623787213185329</v>
+      </c>
+      <c r="F91">
+        <v>0.196137595445367</v>
+      </c>
+      <c r="G91">
+        <v>-0.01145951461124175</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.02748845447655926</v>
+        <v>0.2076851068822138</v>
       </c>
       <c r="C92">
-        <v>0.3090180836124075</v>
+        <v>-0.27395164391576</v>
       </c>
       <c r="D92">
-        <v>-0.1149612475322789</v>
+        <v>-0.05595512321633667</v>
       </c>
       <c r="E92">
-        <v>-0.2405463196703677</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.00528193863250394</v>
+      </c>
+      <c r="F92">
+        <v>0.1379015843716547</v>
+      </c>
+      <c r="G92">
+        <v>0.06089240905265261</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.05695206665385492</v>
+        <v>0.2015748284108395</v>
       </c>
       <c r="C93">
-        <v>0.2242648020278378</v>
+        <v>-0.3354124881987769</v>
       </c>
       <c r="D93">
-        <v>-0.1609988978519112</v>
+        <v>-0.01899031400678551</v>
       </c>
       <c r="E93">
-        <v>-0.3214030490848535</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.01237766948862104</v>
+      </c>
+      <c r="F93">
+        <v>0.01721401495662592</v>
+      </c>
+      <c r="G93">
+        <v>-0.0001745850974050742</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.03358778539623517</v>
+        <v>0.2755448375289604</v>
       </c>
       <c r="C94">
-        <v>0.2842543142465169</v>
+        <v>0.1476362987461153</v>
       </c>
       <c r="D94">
-        <v>-0.02319380174624192</v>
+        <v>-0.01450989961030707</v>
       </c>
       <c r="E94">
-        <v>0.1925588543863886</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.101098946245288</v>
+      </c>
+      <c r="F94">
+        <v>0.3963596189372289</v>
+      </c>
+      <c r="G94">
+        <v>-0.1124685770025916</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.008140540605741117</v>
+        <v>0.08316005622336299</v>
       </c>
       <c r="C95">
-        <v>0.09059060900490362</v>
+        <v>0.07344585061279213</v>
       </c>
       <c r="D95">
-        <v>-0.07154227935137177</v>
+        <v>-0.00830219388830505</v>
       </c>
       <c r="E95">
-        <v>0.06450395646970482</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.07728932807553059</v>
+      </c>
+      <c r="F95">
+        <v>-0.1564254823072613</v>
+      </c>
+      <c r="G95">
+        <v>-0.07268742347229008</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.02283448355611187</v>
+        <v>0.2149550845039281</v>
       </c>
       <c r="C98">
-        <v>0.2094927748872773</v>
+        <v>0.0449911897805386</v>
       </c>
       <c r="D98">
-        <v>-0.04403974777847638</v>
+        <v>-0.01846430307578382</v>
       </c>
       <c r="E98">
-        <v>0.07795257752956831</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.06683846163813492</v>
+      </c>
+      <c r="F98">
+        <v>-0.2395822616238264</v>
+      </c>
+      <c r="G98">
+        <v>-0.03680646835280164</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.008779866816994374</v>
+        <v>0.01366306465298709</v>
       </c>
       <c r="C101">
-        <v>0.02734789127825749</v>
+        <v>0.02052170728593792</v>
       </c>
       <c r="D101">
-        <v>0.006478346412154469</v>
+        <v>0.008341975856784945</v>
       </c>
       <c r="E101">
-        <v>0.02220280826792668</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.0352075421756531</v>
+      </c>
+      <c r="F101">
+        <v>0.02522097192504824</v>
+      </c>
+      <c r="G101">
+        <v>0.03710526326408232</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.02275256347592631</v>
+        <v>0.1272678214044854</v>
       </c>
       <c r="C102">
-        <v>0.1249857778171262</v>
+        <v>0.07713104931094715</v>
       </c>
       <c r="D102">
-        <v>0.004829087973712257</v>
+        <v>-0.00115139519673808</v>
       </c>
       <c r="E102">
-        <v>0.08693409728552363</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.04394455886940126</v>
+      </c>
+      <c r="F102">
+        <v>0.06249626944141175</v>
+      </c>
+      <c r="G102">
+        <v>-0.0145288578205953</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>-0.002909291361730759</v>
+        <v>0.00582691816734093</v>
       </c>
       <c r="C103">
-        <v>0.02881156991659921</v>
+        <v>0.00545867838151958</v>
       </c>
       <c r="D103">
-        <v>0.01743542917940266</v>
+        <v>0.000307164322844379</v>
       </c>
       <c r="E103">
-        <v>0.02419677876845011</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.001773319803462084</v>
+      </c>
+      <c r="F103">
+        <v>0.009199628506287142</v>
+      </c>
+      <c r="G103">
+        <v>0.01367447305103742</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.9783596742059119</v>
+        <v>0.04268500873609915</v>
       </c>
       <c r="C104">
-        <v>-0.1527031654932643</v>
+        <v>-0.0459526863513765</v>
       </c>
       <c r="D104">
-        <v>0.03563514598659902</v>
+        <v>0.9857691782825799</v>
       </c>
       <c r="E104">
-        <v>0.04564558703692777</v>
+        <v>-0.04506833890259242</v>
+      </c>
+      <c r="F104">
+        <v>0.03904842208651846</v>
+      </c>
+      <c r="G104">
+        <v>-0.0006713860403726634</v>
       </c>
     </row>
   </sheetData>
